--- a/对比单个/数据.xlsx
+++ b/对比单个/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="B" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
   <si>
     <t>/</t>
   </si>
@@ -82,6 +83,14 @@
   </si>
   <si>
     <t>Cyptoraptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -171,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +193,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -794,11 +804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217224656"/>
-        <c:axId val="217231184"/>
+        <c:axId val="637215904"/>
+        <c:axId val="924286128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217224656"/>
+        <c:axId val="637215904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217231184"/>
+        <c:crossAx val="924286128"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217231184"/>
+        <c:axId val="924286128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217224656"/>
+        <c:crossAx val="637215904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,11 +1661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111412400"/>
-        <c:axId val="111415664"/>
+        <c:axId val="924280688"/>
+        <c:axId val="924288304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111412400"/>
+        <c:axId val="924280688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111415664"/>
+        <c:crossAx val="924288304"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1776,7 +1786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111415664"/>
+        <c:axId val="924288304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111412400"/>
+        <c:crossAx val="924280688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11938,7 +11948,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12300,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12586,42 +12596,42 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <f>-(B2-B$6)/B2</f>
-        <v>-0.29597701149425298</v>
+        <f>(B2-B$6)/B2</f>
+        <v>0.29597701149425298</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:K8" si="0">-(C2-C$6)/C2</f>
-        <v>-0.29597701149425298</v>
+        <f t="shared" ref="C8:H8" si="0">(C2-C$6)/C2</f>
+        <v>0.29597701149425298</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69827586206896552</v>
+        <v>0.69827586206896552</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.39655172413793099</v>
+        <v>0.39655172413793099</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.59770114942528729</v>
+        <v>0.59770114942528729</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.43433908045977004</v>
+        <v>0.43433908045977004</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:K8" si="1">-(I2-I$6)/I2</f>
         <v>7.4999999999999123E-2</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.29600518095407669</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55865966881627549</v>
       </c>
     </row>
@@ -12630,43 +12640,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:K9" si="1">-(B3-B$6)/B3</f>
-        <v>-0.37659033078880411</v>
+        <f t="shared" ref="B9:H9" si="2">(B3-B$6)/B3</f>
+        <v>0.37659033078880411</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.37659033078880411</v>
+        <f t="shared" si="2"/>
+        <v>0.37659033078880411</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.73282442748091592</v>
+        <f t="shared" si="2"/>
+        <v>0.73282442748091592</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.73282442748091592</v>
+        <f t="shared" si="2"/>
+        <v>0.73282442748091592</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.64376590330788808</v>
+        <f t="shared" si="2"/>
+        <v>0.64376590330788808</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.64376590330788808</v>
+        <f t="shared" si="2"/>
+        <v>0.64376590330788808</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.64222101054162117</v>
+        <f t="shared" si="2"/>
+        <v>0.64222101054162117</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B9:K9" si="3">-(I3-I$6)/I3</f>
         <v>0.94499999999999895</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.51947062995754345</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8728732568990289</v>
       </c>
     </row>
@@ -12675,43 +12685,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:K10" si="2">-(B4-B$6)/B4</f>
-        <v>-0.44632768361581932</v>
+        <f t="shared" ref="B10:H10" si="4">(B4-B$6)/B4</f>
+        <v>0.44632768361581932</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.63088512241054628</v>
+        <f t="shared" si="4"/>
+        <v>0.63088512241054628</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.52542372881355937</v>
+        <f t="shared" si="4"/>
+        <v>0.52542372881355937</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.68361581920903947</v>
+        <f t="shared" si="4"/>
+        <v>0.68361581920903947</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26553672316384175</v>
+        <f t="shared" si="4"/>
+        <v>-0.26553672316384175</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.3672316384180791</v>
+        <f t="shared" si="4"/>
+        <v>0.3672316384180791</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.57632499327414577</v>
+        <f t="shared" si="4"/>
+        <v>0.57632499327414577</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B10:K10" si="5">-(I4-I$6)/I4</f>
         <v>5.6239999999999979</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.13465140287210547</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.4347223368373374</v>
       </c>
     </row>
@@ -12720,48 +12730,1703 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ref="B11:H11" si="3">-(B5-B$6)/B5</f>
-        <v>-0.4248826291079813</v>
+        <f t="shared" ref="B11:H11" si="6">(B5-B$6)/B5</f>
+        <v>0.4248826291079813</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.71244131455399073</v>
+        <f t="shared" si="6"/>
+        <v>0.71244131455399073</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.50704225352112675</v>
+        <f t="shared" si="6"/>
+        <v>0.50704225352112675</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.50704225352112675</v>
+        <f t="shared" si="6"/>
+        <v>0.50704225352112675</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.67136150234741787</v>
+        <f t="shared" si="6"/>
+        <v>0.67136150234741787</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:K11" si="4">-(H5-H$6)/H5</f>
-        <v>-0.57991890738369611</v>
+        <f t="shared" si="6"/>
+        <v>0.57991890738369611</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H11:K11" si="7">-(I5-I$6)/I5</f>
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.39906975043849158</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.68871393911735523</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="B1" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="C1" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="D1" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="E1" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="F1" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="G1" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="H1" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="K1" s="2">
+        <f>SUM(A1:H1,A17:H17,A33:H33,A49:F49)/30</f>
+        <v>44.651162790697711</v>
+      </c>
+      <c r="L1" s="5">
+        <f>(K13-K1)/K1</f>
+        <v>7.4999999999999123E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.61573999999999995</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.61573999999999995</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.86203600000000002</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(A2:H2,A18:H18,A34:H34,A50:F50)/30</f>
+        <v>0.47617226666666645</v>
+      </c>
+      <c r="L2" s="5">
+        <f>(K14-K2)/K2</f>
+        <v>-0.30036930612226592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>241.72087131309576</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="D3" s="2">
+        <v>96.688348525238311</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="F3" s="2">
+        <v>48.344174262619156</v>
+      </c>
+      <c r="G3" s="2">
+        <v>69.063106089455928</v>
+      </c>
+      <c r="H3" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SUM(A3:H3,A19:H19,A35:H35,A51:F51)/30</f>
+        <v>109.28597065451868</v>
+      </c>
+      <c r="L3" s="5">
+        <f>(K15-K3)/K3</f>
+        <v>0.57073605189730403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SUM(A4:H4,A20:H20,A36:H36,A52:F52)/30</f>
+        <v>24.678663239074563</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(K16-K4)/K4</f>
+        <v>0.94499999999999895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.905216</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.95260800000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.63507199999999997</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.79383999999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.428912</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K21" si="0">SUM(A5:H5,A21:H21,A37:H37,A53:F53)/30</f>
+        <v>0.69328693333333347</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L12" si="1">(K17-K5)/K5</f>
+        <v>-0.51947062995754345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>103.62568124170508</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.270946873617515</v>
+      </c>
+      <c r="D6" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="E6" s="2">
+        <v>51.81284062085254</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.725136248341016</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23.027929164823352</v>
+      </c>
+      <c r="H6" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>44.323530022020208</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8728732568990289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SUM(A7:H7,A23:H23,A39:H39,A55:F55)/24</f>
+        <v>7.2463768115942058</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.6239999999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.4683735</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.4683735</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.624498</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.1561245</v>
+      </c>
+      <c r="K8" s="8">
+        <f>SUM(A8:H8,A24:H24,A40:H40,A56:F56)/24</f>
+        <v>0.38498327083333334</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.13465140287210547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21.217870350815669</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.217870350815669</v>
+      </c>
+      <c r="E9" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15.913402763111753</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15.913402763111753</v>
+      </c>
+      <c r="H9" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SUM(A9:H9,A25:H25,A41:H41,A57:F57)/24</f>
+        <v>23.088880296592976</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4347223368373374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>0.23305200000000001</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.699156</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.58262999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.93220800000000004</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55438169999999998</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.39906975043849158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>274.61682371316272</v>
+      </c>
+      <c r="B12" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="C12" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="D12" s="2">
+        <v>91.538941237720906</v>
+      </c>
+      <c r="E12" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="F12" s="2">
+        <v>54.92336474263255</v>
+      </c>
+      <c r="G12" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="H12" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>101.65097243371189</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.68871393911735523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.29039599999999999</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.483873</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33314473333333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="B15" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="C15" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="D15" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="E15" s="2">
+        <v>220.38871058830011</v>
+      </c>
+      <c r="F15" s="2">
+        <v>73.462903529433376</v>
+      </c>
+      <c r="G15" s="2">
+        <v>132.26611114899984</v>
+      </c>
+      <c r="H15" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>171.65941407364329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="K16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="B17" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="C17" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="D17" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="E17" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="F17" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="G17" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="K17">
+        <v>0.33314473333333328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>1.2314799999999999</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="K18">
+        <v>171.65941407364329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>48.344174262619156</v>
+      </c>
+      <c r="B19" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="C19" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="D19" s="2">
+        <v>60.430217828273939</v>
+      </c>
+      <c r="E19" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="F19" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="G19" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="H19" s="2">
+        <v>161.14724754206384</v>
+      </c>
+      <c r="K19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="B20" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="D20" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="E20" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="F20" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="H20" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="K20">
+        <v>0.33314473333333328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>1.746448</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.95260800000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.63507199999999997</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.63507199999999997</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="K21">
+        <v>171.65941407364329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>18.841032953037288</v>
+      </c>
+      <c r="B22" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25.90642031042627</v>
+      </c>
+      <c r="E22" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="F22" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25.90642031042627</v>
+      </c>
+      <c r="H22" s="2">
+        <v>69.083787494470059</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.33314473333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>1.0928715</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.4683735</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.1561245</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.624498</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.34050200000000003</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.4683735</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>171.65941407364329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>9.0933730074924295</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21.217870350815669</v>
+      </c>
+      <c r="C25" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.9567013815558765</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14.592995340347137</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15.913402763111753</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10.608935175407835</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2">
+        <v>32</v>
+      </c>
+      <c r="H26" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>1.398312</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.699156</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.43785099999999999</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.349578</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.23305200000000001</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>45.769470618860453</v>
+      </c>
+      <c r="B28" s="2">
+        <v>91.538941237720906</v>
+      </c>
+      <c r="C28" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="D28" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="E28" s="2">
+        <v>73.084222715033192</v>
+      </c>
+      <c r="F28" s="2">
+        <v>91.538941237720906</v>
+      </c>
+      <c r="G28" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="H28" s="2">
+        <v>137.30841185658136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>1.0889850000000001</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.29039599999999999</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>58.770322823546692</v>
+      </c>
+      <c r="B31" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="C31" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="D31" s="2">
+        <v>110.19435529415006</v>
+      </c>
+      <c r="E31" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="F31" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="G31" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="H31" s="2">
+        <v>293.8516141177335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="B33" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="D33" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="E33" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="F33" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="G33" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="H33" s="2">
+        <v>29.767441860465116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.61573999999999995</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1.1083320000000001</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>161.14724754206384</v>
+      </c>
+      <c r="B35" s="2">
+        <v>241.72087131309576</v>
+      </c>
+      <c r="C35" s="2">
+        <v>48.344174262619156</v>
+      </c>
+      <c r="D35" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="E35" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="F35" s="2">
+        <v>161.14724754206384</v>
+      </c>
+      <c r="G35" s="2">
+        <v>26.857874590343972</v>
+      </c>
+      <c r="H35" s="2">
+        <v>120.86043565654788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="B36" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="F36" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="G36" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="H36" s="2">
+        <v>16.452442159383033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.79383999999999999</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1.428912</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>69.083787494470059</v>
+      </c>
+      <c r="B38" s="2">
+        <v>103.62568124170508</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20.725136248341016</v>
+      </c>
+      <c r="D38" s="2">
+        <v>51.81284062085254</v>
+      </c>
+      <c r="E38" s="2">
+        <v>51.81284062085254</v>
+      </c>
+      <c r="F38" s="2">
+        <v>69.083787494470059</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11.513964582411676</v>
+      </c>
+      <c r="H38" s="2">
+        <v>51.81284062085254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.1561245</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.4683735</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.624498</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.1561245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="B41" s="2">
+        <v>63.653611052447012</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.608935175407835</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15.913402763111753</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7.9567013815558765</v>
+      </c>
+      <c r="H41" s="2">
+        <v>31.826805526223506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2">
+        <v>64</v>
+      </c>
+      <c r="C42" s="2">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2">
+        <v>32</v>
+      </c>
+      <c r="F42" s="2">
+        <v>64</v>
+      </c>
+      <c r="G42" s="2">
+        <v>32</v>
+      </c>
+      <c r="H42" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.699156</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.23305200000000001</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.23305200000000001</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1.0487340000000001</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="B44" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45.769470618860453</v>
+      </c>
+      <c r="D44" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="E44" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="F44" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="G44" s="2">
+        <v>30.512980412573636</v>
+      </c>
+      <c r="H44" s="2">
+        <v>68.654205928290679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2">
+        <v>32</v>
+      </c>
+      <c r="F45" s="2">
+        <v>64</v>
+      </c>
+      <c r="G45" s="2">
+        <v>32</v>
+      </c>
+      <c r="H45" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.65339100000000006</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="B47" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="C47" s="2">
+        <v>73.462903529433376</v>
+      </c>
+      <c r="D47" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="E47" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="F47" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="G47" s="2">
+        <v>48.975269019622246</v>
+      </c>
+      <c r="H47" s="2">
+        <v>146.92580705886675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="B49" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="C49" s="2">
+        <v>59.534883720930232</v>
+      </c>
+      <c r="D49" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="E49" s="2">
+        <v>29.767441860465116</v>
+      </c>
+      <c r="F49" s="2">
+        <v>59.534883720930232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.36944399999999999</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.73888799999999999</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.24629599999999999</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.49259199999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>161.14724754206384</v>
+      </c>
+      <c r="B51" s="2">
+        <v>161.14724754206384</v>
+      </c>
+      <c r="C51" s="2">
+        <v>80.573623771031919</v>
+      </c>
+      <c r="D51" s="2">
+        <v>120.86043565654788</v>
+      </c>
+      <c r="E51" s="2">
+        <v>60.430217828273939</v>
+      </c>
+      <c r="F51" s="2">
+        <v>120.86043565654788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="C52" s="2">
+        <v>32.904884318766065</v>
+      </c>
+      <c r="D52" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="E52" s="2">
+        <v>16.452442159383033</v>
+      </c>
+      <c r="F52" s="2">
+        <v>32.904884318766065</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.47630400000000001</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.95260800000000001</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.31753599999999998</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.63507199999999997</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.63507199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>69.083787494470059</v>
+      </c>
+      <c r="B54" s="2">
+        <v>69.083787494470059</v>
+      </c>
+      <c r="C54" s="2">
+        <v>34.541893747235029</v>
+      </c>
+      <c r="D54" s="2">
+        <v>51.81284062085254</v>
+      </c>
+      <c r="E54" s="2">
+        <v>25.90642031042627</v>
+      </c>
+      <c r="F54" s="2">
+        <v>51.81284062085254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="F55" s="2">
+        <v>9.9378881987577632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.1561245</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.312249</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.312249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>31.826805526223506</v>
+      </c>
+      <c r="E57" s="2">
+        <v>15.913402763111753</v>
+      </c>
+      <c r="F57" s="2">
+        <v>31.826805526223506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2">
+        <v>64</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2">
+        <v>32</v>
+      </c>
+      <c r="F58" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>0.349578</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.57911599999999996</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.46610400000000002</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.93220800000000004</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.93220800000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>183.07788247544181</v>
+      </c>
+      <c r="B60" s="2">
+        <v>137.30841185658136</v>
+      </c>
+      <c r="C60" s="2">
+        <v>110.51326504534498</v>
+      </c>
+      <c r="D60" s="2">
+        <v>68.654205928290679</v>
+      </c>
+      <c r="E60" s="2">
+        <v>34.32710296414534</v>
+      </c>
+      <c r="F60" s="2">
+        <v>68.654205928290679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2">
+        <v>64</v>
+      </c>
+      <c r="D61" s="2">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2">
+        <v>32</v>
+      </c>
+      <c r="F61" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.65339100000000006</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.43559399999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="B63" s="2">
+        <v>293.8516141177335</v>
+      </c>
+      <c r="C63" s="2">
+        <v>97.950538039244492</v>
+      </c>
+      <c r="D63" s="2">
+        <v>146.92580705886675</v>
+      </c>
+      <c r="E63" s="2">
+        <v>73.462903529433376</v>
+      </c>
+      <c r="F63" s="2">
+        <v>146.92580705886675</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/对比单个/数据.xlsx
+++ b/对比单个/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="1" r:id="rId1"/>
@@ -804,11 +804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637215904"/>
-        <c:axId val="924286128"/>
+        <c:axId val="-764193248"/>
+        <c:axId val="-764199232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637215904"/>
+        <c:axId val="-764193248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924286128"/>
+        <c:crossAx val="-764199232"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924286128"/>
+        <c:axId val="-764199232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637215904"/>
+        <c:crossAx val="-764193248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,7 +1149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1661,11 +1660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="924280688"/>
-        <c:axId val="924288304"/>
+        <c:axId val="-764198144"/>
+        <c:axId val="-764192704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="924280688"/>
+        <c:axId val="-764198144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1778,7 +1776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924288304"/>
+        <c:crossAx val="-764192704"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924288304"/>
+        <c:axId val="-764192704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1816,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1885,7 +1882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924280688"/>
+        <c:crossAx val="-764198144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1899,7 +1896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11947,8 +11943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12172,30 +12168,30 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <f>-(B2-B$6)/B2</f>
         <v>0.63455149501661101</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">-(C2-C$6)/C2</f>
         <v>0.66720102596986153</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>2.6619718309859151</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>0.6343891402714934</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1.4027497925803012</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>0.83210851164244559</v>
       </c>
@@ -12204,23 +12200,23 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <f t="shared" ref="B9:H11" si="1">-(B3-B$6)/B3</f>
         <v>0.66565786098999735</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <f t="shared" si="1"/>
         <v>0.95832287220687895</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>2.6619718309859151</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>2.4606424285210022</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>1.4709258732580088</v>
       </c>
@@ -12228,7 +12224,7 @@
         <f t="shared" si="1"/>
         <v>1.3142857142857141</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>1.6849328379735369</v>
       </c>
@@ -12237,23 +12233,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>0.67489361702127637</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <f t="shared" si="1"/>
         <v>1.4935064935064928</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>19.799999999999997</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>1.822020046260602</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>-0.22552053486150905</v>
       </c>
@@ -12261,7 +12257,7 @@
         <f t="shared" si="1"/>
         <v>0.37872340425531914</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>1.2836696021118827</v>
       </c>
@@ -12270,30 +12266,30 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>0.87012987012987009</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <f t="shared" si="1"/>
         <v>2.3613445378151257</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>1.2608695652173914</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>1.0016333197223355</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>2.1581243184296617</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>1.5080398213432353</v>
       </c>
@@ -12623,7 +12619,7 @@
         <v>0.43433908045977004</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="C8:K8" si="1">-(I2-I$6)/I2</f>
+        <f t="shared" ref="I8:K8" si="1">-(I2-I$6)/I2</f>
         <v>7.4999999999999123E-2</v>
       </c>
       <c r="J8" s="1">
@@ -12668,7 +12664,7 @@
         <v>0.64222101054162117</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="B9:K9" si="3">-(I3-I$6)/I3</f>
+        <f t="shared" ref="I9:K9" si="3">-(I3-I$6)/I3</f>
         <v>0.94499999999999895</v>
       </c>
       <c r="J9" s="1">
@@ -12713,7 +12709,7 @@
         <v>0.57632499327414577</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="B10:K10" si="5">-(I4-I$6)/I4</f>
+        <f t="shared" ref="I10:K10" si="5">-(I4-I$6)/I4</f>
         <v>5.6239999999999979</v>
       </c>
       <c r="J10" s="1">
@@ -12757,7 +12753,7 @@
         <v>0.57991890738369611</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="H11:K11" si="7">-(I5-I$6)/I5</f>
+        <f t="shared" ref="I11:K11" si="7">-(I5-I$6)/I5</f>
         <v>0</v>
       </c>
       <c r="J11" s="1">
@@ -12781,7 +12777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -12952,7 +12948,7 @@
         <v>0.47630400000000001</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:K21" si="0">SUM(A5:H5,A21:H21,A37:H37,A53:F53)/30</f>
+        <f t="shared" ref="K5:K15" si="0">SUM(A5:H5,A21:H21,A37:H37,A53:F53)/30</f>
         <v>0.69328693333333347</v>
       </c>
       <c r="L5" s="5">
